--- a/Tools/TableData/TestTable.xlsx
+++ b/Tools/TableData/TestTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,94 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+  <si>
+    <t>数字索引</t>
+  </si>
+  <si>
+    <t>字符串索引</t>
+  </si>
+  <si>
+    <t>数字类型</t>
+  </si>
+  <si>
+    <t>字符串类型</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Int[]</t>
+  </si>
+  <si>
+    <t>整型数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +106,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -42,23 +136,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +586,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>100</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
+      <formula1>"Int,String,Float,Int[],Map[String]Int"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>